--- a/BackTest/2020-01-24 BackTest TRX.xlsx
+++ b/BackTest/2020-01-24 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1474,7 +1474,7 @@
         <v>2727252.40763134</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2727124.40763134</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2727628.40763134</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2727628.40763134</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2727628.40763134</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2680937.88013134</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2731844.08243134</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2731684.48243134</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>2762965.19543134</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2762965.19543134</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2762965.19543134</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2762965.19543134</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2746584.22883134</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2746584.22883134</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>2746584.22883134</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>2747587.22883134</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>2747587.22883134</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>2747587.22883134</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>2820398.90563134</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>2820398.90563134</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>2820398.90563134</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>2820398.90563134</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>2820398.90563134</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>2820398.90563134</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>2820398.90563134</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>2839037.058131339</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>2749281.716931339</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>2759887.777537399</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>2759887.777537399</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2759887.777537399</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>2759862.4482374</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>2804372.1700374</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>2832250.4103374</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>2832250.4103374</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2824641.9294374</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2824641.9294374</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>2824641.9294374</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>2924641.9294374</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>2890147.1143374</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>2895147.1143374</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>2884517.6537374</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>2884517.6537374</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>2817523.4419374</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>2817523.4419374</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>2817523.4419374</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>2713381.7073374</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2713411.7073374</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>2742671.2989374</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>2701515.6340374</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>2712839.2022374</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>2397551.0351374</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>2403276.4208374</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>2401391.1467374</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>2375828.774537399</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>2448684.170137399</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>2448684.170137399</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>2439537.170137399</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>2825185.91342129</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>2825185.91342129</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>2925388.01342129</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>2925291.01342129</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>2927547.583421289</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>2927547.583421289</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>2913788.420921289</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>2919788.420921289</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>4581371.058821289</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>4581371.058821289</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>4581371.058821289</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>4566997.750421288</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>4567027.750421288</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>4968692.720121289</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>4968692.720121289</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>4965934.896121289</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>4964050.626121289</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>4964050.626121289</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>4927267.265421289</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>4968580.787164039</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>4968511.787164039</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>4987467.629691619</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>4946380.332376709</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>4937080.332376709</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>4937080.332376709</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>4936562.948276709</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>5223409.557602509</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>5220676.826902009</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>5220676.826902009</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>5220676.826902009</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>4999140.035377749</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>5079140.035377749</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>5078759.858777749</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>5392765.012995619</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>5392765.012995619</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>5392765.012995619</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>5365635.11149562</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>5685995.462495619</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>5679122.53479562</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>5678084.956095619</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>5607269.945095619</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>4025119.830903459</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>3781092.918303459</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>3808336.37790346</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>3808386.58180346</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>3709868.59960346</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>3623189.93620346</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>3623189.93620346</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>3622096.03860346</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>3622096.03860346</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>3705383.22360346</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>3490806.56870346</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>3490806.56870346</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>3503786.26100346</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>3503786.26100346</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>3277366.48520346</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>3303391.8081265</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>2513930.042126501</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>2568347.2297265</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>2538368.8758265</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>1897332.8033265</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>1897332.8033265</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>1831613.5296265</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>1831613.5296265</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>1825596.5440265</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>1825596.5440265</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>2073085.5440265</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>2104676.8451265</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>2215655.6442265</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>2327620.1796265</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>2327620.1796265</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>2322949.8752265</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>1803137.921931671</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>2278352.45368524</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>2278352.45368524</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>187885.8554574399</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>203885.8554574399</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17314,10 +17314,14 @@
         <v>-1732242.630928731</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="J513" t="n">
+        <v>18.92</v>
+      </c>
       <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
@@ -17350,8 +17354,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17383,8 +17393,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17416,8 +17432,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17449,8 +17471,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17482,8 +17510,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17515,8 +17549,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17548,8 +17588,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17581,8 +17627,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17614,8 +17666,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17647,8 +17705,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17680,8 +17744,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17713,8 +17783,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17746,8 +17822,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17779,8 +17861,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17812,8 +17900,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17845,8 +17939,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17878,8 +17978,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17911,8 +18017,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17944,8 +18056,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17977,8 +18095,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18010,8 +18134,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18043,8 +18173,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18076,8 +18212,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18109,8 +18251,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18142,8 +18290,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18175,8 +18329,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18208,8 +18368,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +18404,19 @@
         <v>-1651384.900628731</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="J541" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18274,8 +18448,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +18484,19 @@
         <v>-1651384.900628731</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="J543" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18340,8 +18528,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18373,8 +18567,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18406,8 +18606,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18439,8 +18645,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18472,8 +18684,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18505,8 +18723,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18538,8 +18762,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18571,8 +18801,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18604,8 +18840,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18637,8 +18879,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18670,8 +18918,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18703,8 +18957,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18736,8 +18996,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18769,8 +19035,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18802,8 +19074,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18835,8 +19113,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18868,8 +19152,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18901,8 +19191,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18934,8 +19230,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18967,8 +19269,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19000,8 +19308,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19033,8 +19347,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19066,8 +19386,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19099,8 +19425,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19132,8 +19464,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19165,8 +19503,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19198,8 +19542,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19231,8 +19581,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19264,8 +19620,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19297,8 +19659,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19330,8 +19698,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19363,8 +19737,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19396,8 +19776,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19429,8 +19815,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19462,8 +19854,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19495,8 +19893,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19528,8 +19932,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19561,8 +19971,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19594,8 +20010,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19627,8 +20049,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19660,8 +20088,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19693,8 +20127,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19726,8 +20166,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19759,8 +20205,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19792,8 +20244,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19825,8 +20283,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19858,8 +20322,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19891,8 +20361,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19924,8 +20400,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19957,8 +20439,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19990,8 +20478,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20023,8 +20517,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20056,8 +20556,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20089,8 +20595,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20122,8 +20634,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20155,8 +20673,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20188,8 +20712,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20221,8 +20751,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20254,8 +20790,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20287,8 +20829,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20320,8 +20868,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20353,8 +20907,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20386,8 +20946,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20419,8 +20985,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20452,8 +21024,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20485,8 +21063,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20518,8 +21102,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20551,8 +21141,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20584,8 +21180,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20617,8 +21219,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20650,8 +21258,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20683,8 +21297,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20713,11 +21333,19 @@
         <v>-4449489.805232649</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="J616" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20746,11 +21374,19 @@
         <v>-4419489.805232649</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="J617" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +21415,19 @@
         <v>-4419839.805232649</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="J618" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20815,8 +21459,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20845,11 +21495,19 @@
         <v>-4350717.706068339</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="J620" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20881,8 +21539,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20911,11 +21575,19 @@
         <v>-4369477.206468339</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="J622" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20944,11 +21616,19 @@
         <v>-4404791.082268339</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>18.93</v>
+      </c>
+      <c r="J623" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20977,11 +21657,19 @@
         <v>-4404791.082268339</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J624" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +21698,19 @@
         <v>-4413099.634568338</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J625" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21043,11 +21739,19 @@
         <v>-4791528.812868338</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="J626" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21076,11 +21780,19 @@
         <v>-4931997.347168338</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="J627" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21109,11 +21821,19 @@
         <v>-4916997.347168338</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="J628" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21145,8 +21865,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21175,11 +21901,19 @@
         <v>-5203832.678368338</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="J630" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21208,11 +21942,19 @@
         <v>-5286431.009868339</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="J631" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21241,11 +21983,19 @@
         <v>-5267919.338368339</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="J632" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21274,11 +22024,19 @@
         <v>-5349675.565968338</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>18.87</v>
+      </c>
+      <c r="J633" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21307,11 +22065,19 @@
         <v>-5325403.409068339</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="J634" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21340,15 +22106,17 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>18.9</v>
       </c>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>18.92</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L635" t="n">
@@ -21379,12 +22147,14 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I636" t="n">
         <v>18.89</v>
       </c>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>18.92</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21418,12 +22188,14 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I637" t="n">
         <v>18.89</v>
       </c>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>18.92</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21457,12 +22229,14 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I638" t="n">
         <v>18.89</v>
       </c>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>18.92</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21496,12 +22270,14 @@
         <v>-5371534.721468339</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I639" t="n">
         <v>18.89</v>
       </c>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>18.92</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21535,12 +22311,14 @@
         <v>-5327274.247468338</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I640" t="n">
         <v>18.88</v>
       </c>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>18.92</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21574,10 +22352,14 @@
         <v>-5327274.247468338</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="J641" t="n">
+        <v>18.92</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21611,12 +22393,14 @@
         <v>-5335493.291968338</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I642" t="n">
         <v>18.92</v>
       </c>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>18.92</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21650,12 +22434,14 @@
         <v>-5515353.613468338</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I643" t="n">
         <v>18.87</v>
       </c>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>18.92</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21689,12 +22475,14 @@
         <v>-5635471.261768337</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I644" t="n">
         <v>18.85</v>
       </c>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>18.92</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21728,12 +22516,14 @@
         <v>-5305428.288868337</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I645" t="n">
         <v>18.84</v>
       </c>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>18.92</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21745,6 +22535,6 @@
       <c r="M645" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest TRX.xlsx
+++ b/BackTest/2020-01-24 BackTest TRX.xlsx
@@ -781,7 +781,7 @@
         <v>2785078.203731339</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2785078.203731339</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2785111.189131339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2776087.530231339</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2710219.784831339</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2710192.555631339</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2727628.40763134</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2746584.22883134</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>2746584.22883134</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>2747587.22883134</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>2820398.90563134</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>2820398.90563134</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>2839037.058131339</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>2749281.716931339</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2759887.777537399</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>2759862.4482374</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>2804372.1700374</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>2832250.4103374</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>2832250.4103374</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>2824641.9294374</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>2824641.9294374</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>2824641.9294374</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>2924641.9294374</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>2890147.1143374</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>2884517.6537374</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>2884517.6537374</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>2817523.4419374</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>2817523.4419374</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>2817523.4419374</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>2713381.7073374</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>2701515.6340374</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>2403276.4208374</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>2401391.1467374</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>2375828.774537399</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>2448684.170137399</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>2439537.170137399</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>2825185.91342129</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>2825185.91342129</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>2925388.01342129</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>2925291.01342129</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>2927547.583421289</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>2927547.583421289</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>2913788.420921289</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>2919788.420921289</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>4581371.058821289</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>4581371.058821289</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>4581371.058821289</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>4566997.750421288</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>4567027.750421288</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>4968692.720121289</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>4968692.720121289</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>4965934.896121289</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>4964050.626121289</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>4964050.626121289</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>4927267.265421289</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>4968580.787164039</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>4968511.787164039</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>4987467.629691619</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>4946380.332376709</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>4937080.332376709</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>4937080.332376709</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>4936562.948276709</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>5223409.557602509</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>5220676.826902009</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>5220676.826902009</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>5220676.826902009</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>4968676.067402009</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>4999140.035377749</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>5079140.035377749</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>5078759.858777749</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>5088361.619023629</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>5088511.568569539</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>5088183.345910129</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>5064072.91311013</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>5063541.04351013</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>5510052.001423109</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>5510052.001423109</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>5510052.001423109</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>5510052.001423109</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>5392765.012995619</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>2394992.072057769</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>2394992.072057769</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>2347077.595257769</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>2352177.595257769</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>1953157.663957769</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>1968275.292957769</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>1968275.292957769</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>1968275.292957769</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>1965064.475257769</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>1965064.475257769</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>1945164.475257769</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>1945164.475257769</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>1946959.148057769</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>1940395.963657769</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>1623983.418457769</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>1497589.617557769</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>1663460.36215777</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>1663309.48955777</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>1608607.93755777</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>1613084.44365777</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>1597465.92115777</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>1713096.83325777</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>1734113.92295777</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1736993.92295777</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>1736844.92295777</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>1818626.50285777</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>1800626.50285777</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>1804214.01145777</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>1801899.19595777</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>1818131.01705777</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>1828387.42731418</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>1822365.56421418</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>1446788.55191418</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>1447564.08171418</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>1447564.08171418</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>1447538.08171418</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>1440935.02461418</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>1444180.97281418</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>1444180.97281418</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>1444180.97281418</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>1413427.46913943</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>1413427.46913943</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>1374079.74523943</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>1379404.85443943</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>449867.1564394297</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>290367.1564394297</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>290367.1564394297</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>290367.1564394297</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>283973.1564394297</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>283973.1564394297</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>266473.1564394297</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>266473.1564394297</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>187787.1724394297</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>635449.4804785699</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>312620.1721785698</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-295507.0196214303</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-401308.6304214302</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-65456.36752143022</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-64421.19692143022</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-69905.66312143022</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-285504.7945214302</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-327412.7945214302</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-66560.03354256012</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-40360.03354256012</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-40360.03354256012</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-48103.21564256012</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-50075.16754256012</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-50075.16754256012</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-50075.16754256012</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-50075.16754256012</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>160241.1204574399</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>270141.1204574399</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>216099.6832574399</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>216099.6832574399</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>218702.3975574399</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>218702.3975574399</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>274213.6070574399</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>274213.6070574399</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>187885.8554574399</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>203885.8554574399</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>205485.8554574399</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>195485.8554574399</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>123837.5226574399</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>135744.6250763699</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>132027.6250763699</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>323049.8755763699</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>33602.48887636996</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>51538.91727636996</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>49582.91727636996</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>59347.05767636996</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>-261546.46892363</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>-1312281.82502363</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>-1112281.82502363</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>-1112281.82502363</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>-1122281.82502363</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>-1124305.65392363</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -21274,11 +21274,17 @@
         <v>-5349675.565968338</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>18.87</v>
+      </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21307,11 +21313,17 @@
         <v>-5325403.409068339</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>18.86</v>
+      </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21340,11 +21352,17 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>18.9</v>
+      </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21373,11 +21391,17 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>18.89</v>
+      </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21406,11 +21430,17 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>18.89</v>
+      </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21439,11 +21469,17 @@
         <v>-5358804.300468339</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>18.89</v>
+      </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21472,11 +21508,17 @@
         <v>-5371534.721468339</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>18.89</v>
+      </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21505,11 +21547,17 @@
         <v>-5327274.247468338</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>18.88</v>
+      </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21546,7 +21594,7 @@
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L641" t="n">
